--- a/Data/EC/NIT-9011073376.xlsx
+++ b/Data/EC/NIT-9011073376.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F952CB5B-8992-4FB9-9187-1F0E230B09F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{512BC81B-35DD-48B5-8C22-73CEBA732B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D7271FF-67BA-40D1-88F4-F70C1E137A30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{29D8FB1D-3C7C-452B-B938-1DA4DC0AD1EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="123">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,256 +71,307 @@
     <t>AMPARO ASTRID GARCIA ESCOBAR</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
     <t>1807</t>
   </si>
   <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>45550109</t>
+  </si>
+  <si>
+    <t>BERLYS MARIA ARRAZOLA OSORIO</t>
+  </si>
+  <si>
+    <t>1047424156</t>
+  </si>
+  <si>
+    <t>KIMBERLY JOHANA WATTS DIAZ</t>
+  </si>
+  <si>
+    <t>1047398676</t>
+  </si>
+  <si>
+    <t>EDITH CAROLA GARCIA CASTELLAR</t>
+  </si>
+  <si>
+    <t>1047405655</t>
+  </si>
+  <si>
+    <t>JONATHAN RAFAEL MAZO LOPEZ</t>
+  </si>
+  <si>
+    <t>1126787163</t>
+  </si>
+  <si>
+    <t>ESTEFANY ALEJANDRA MAZO CAÑAS</t>
+  </si>
+  <si>
+    <t>92446752</t>
+  </si>
+  <si>
+    <t>JUAN BALLESTERO MURILLO</t>
+  </si>
+  <si>
+    <t>1103219791</t>
+  </si>
+  <si>
+    <t>MANUEL DAVID PEREZ ORTIZ</t>
+  </si>
+  <si>
+    <t>1047395467</t>
+  </si>
+  <si>
+    <t>MICHAEL JOSE JIMENEZ LOPEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -364,7 +415,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +785,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E29D4A-EB84-FB0B-82BA-5D8E4FB9D8AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79E8A88-68F5-C04B-96C5-6D701F6B8D90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,32 +1136,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF79720-6722-4158-86DE-7D7B88C7FA97}">
-  <dimension ref="B2:J105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75027350-1EAA-423A-AB37-8BD150543A63}">
+  <dimension ref="B2:J115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1119,7 +1170,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1130,7 +1181,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1141,7 +1192,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1152,10 +1203,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1168,8 +1219,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1184,15 +1235,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2624916</v>
+        <v>3252372</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1200,27 +1251,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F13" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1240,16 +1291,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1323,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1346,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1369,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1392,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1415,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1438,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1461,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1484,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +1507,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1530,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1553,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1576,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1599,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1622,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1594,7 +1645,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1617,7 +1668,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1691,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1663,7 +1714,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +1737,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1760,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1732,7 +1783,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1806,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1778,7 +1829,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1801,7 +1852,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +1875,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1847,7 +1898,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1921,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1944,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1967,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1939,7 +1990,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +2013,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1985,7 +2036,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -2008,7 +2059,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2031,7 +2082,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2105,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2077,7 +2128,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2151,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2123,7 +2174,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2197,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2220,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2192,7 +2243,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2266,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2289,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2261,7 +2312,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2284,7 +2335,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2307,7 +2358,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2381,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2404,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2376,7 +2427,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2450,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2422,7 +2473,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2496,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2468,7 +2519,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2542,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2514,7 +2565,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2537,7 +2588,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2611,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2583,7 +2634,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +2657,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2629,7 +2680,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2652,7 +2703,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +2726,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2698,7 +2749,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2721,7 +2772,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2744,7 +2795,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2767,7 +2818,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2790,7 +2841,7 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2813,7 +2864,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2836,7 +2887,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2859,7 +2910,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2933,7 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2905,7 +2956,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2928,7 +2979,7 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2951,7 +3002,7 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +3025,7 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +3048,7 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -3020,7 +3071,7 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3043,7 +3094,7 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3066,7 +3117,7 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3089,7 +3140,7 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3112,7 +3163,7 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3135,7 +3186,7 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3158,57 +3209,287 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="22" t="s">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G99" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="32" t="s">
+      <c r="F99" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G99" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="18">
+        <v>88711</v>
+      </c>
+      <c r="G101" s="18">
+        <v>2217767</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="18">
+        <v>113856</v>
+      </c>
+      <c r="G103" s="18">
+        <v>2846391</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="32"/>
-      <c r="H104" s="1" t="s">
+      <c r="D105" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105" s="32"/>
-      <c r="H105" s="1" t="s">
+      <c r="D106" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="E106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G109" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="26"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="32"/>
+      <c r="H114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="H115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="H114:J114"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011073376.xlsx
+++ b/Data/EC/NIT-9011073376.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512BC81B-35DD-48B5-8C22-73CEBA732B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D14DF1F-8426-4AF1-BC19-B1200FF1343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{29D8FB1D-3C7C-452B-B938-1DA4DC0AD1EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5DC26CD4-B945-4178-8F68-C86E7C227BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,259 +71,262 @@
     <t>AMPARO ASTRID GARCIA ESCOBAR</t>
   </si>
   <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
+    <t>2508</t>
   </si>
   <si>
     <t>45550109</t>
@@ -415,7 +418,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,7 +473,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -483,9 +488,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -685,23 +688,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,10 +732,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,7 +788,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79E8A88-68F5-C04B-96C5-6D701F6B8D90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4467EF37-5799-3023-7461-FAFE55B792BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,32 +1139,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75027350-1EAA-423A-AB37-8BD150543A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985F4DF-A710-43CD-937E-F1B594B8C0BD}">
   <dimension ref="B2:J115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1170,7 +1173,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1181,7 +1184,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1192,7 +1195,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1203,10 +1206,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1219,8 +1222,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1235,15 +1238,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3252372</v>
+        <v>3231621</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1251,27 +1254,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="5">
         <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1291,16 +1294,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1326,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1349,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1372,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1395,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1418,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1441,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1464,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1487,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1507,7 +1510,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1533,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1556,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +1579,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1602,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1625,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1648,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1671,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1694,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1740,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1763,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1783,7 +1786,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1809,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +1855,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1878,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1901,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1921,7 +1924,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +1947,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1967,7 +1970,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1993,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -2013,7 +2016,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2039,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2062,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2085,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2108,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2128,7 +2131,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2154,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2177,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2200,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2223,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2243,7 +2246,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2269,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2292,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2312,7 +2315,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +2338,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2358,7 +2361,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2381,7 +2384,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2404,7 +2407,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2430,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2453,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2473,7 +2476,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2499,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2522,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2545,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2565,7 +2568,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2591,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2611,7 +2614,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2657,7 +2660,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2683,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2703,7 +2706,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2726,7 +2729,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2749,7 +2752,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2772,7 +2775,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +2798,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2821,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +2844,7 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2864,7 +2867,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2887,7 +2890,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2933,7 +2936,7 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2979,7 +2982,7 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3005,7 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -3025,7 +3028,7 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +3051,7 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3074,7 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3094,7 +3097,7 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3117,7 +3120,7 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3140,7 +3143,7 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3163,7 +3166,7 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3186,7 +3189,7 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3209,7 +3212,7 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3232,7 +3235,7 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3255,110 +3258,110 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F101" s="18">
-        <v>88711</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>2217767</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="17" t="s">
-        <v>99</v>
-      </c>
       <c r="E102" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F102" s="18">
-        <v>56940</v>
+        <v>88711</v>
       </c>
       <c r="G102" s="18">
-        <v>1423500</v>
+        <v>2217767</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="E103" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F103" s="18">
-        <v>113856</v>
+        <v>56940</v>
       </c>
       <c r="G103" s="18">
-        <v>2846391</v>
+        <v>1423500</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D104" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="E104" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F104" s="18">
-        <v>52000</v>
+        <v>113856</v>
       </c>
       <c r="G104" s="18">
-        <v>1300000</v>
+        <v>2846391</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="E105" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F105" s="18">
         <v>56940</v>
@@ -3370,18 +3373,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F106" s="18">
         <v>56940</v>
@@ -3393,18 +3396,18 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F107" s="18">
         <v>56940</v>
@@ -3416,18 +3419,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F108" s="18">
         <v>56940</v>
@@ -3439,18 +3442,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F109" s="24">
         <v>56940</v>
@@ -3462,24 +3465,24 @@
       <c r="I109" s="25"/>
       <c r="J109" s="26"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C114" s="32"/>
       <c r="H114" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C115" s="32"/>
       <c r="H115" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
